--- a/1 Month Tracking/Measurements.xlsx
+++ b/1 Month Tracking/Measurements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Time_Stamp_Prediction  </t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>S.No.</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +394,11 @@
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -405,23 +409,38 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">NOW()</f>
-        <v>44935.883091087962</v>
+        <v>44935.430486111109</v>
       </c>
       <c r="C2" s="3">
         <v>2218.3891600000002</v>
       </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44936.015868055554</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2246.3059079999998</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1 Month Tracking/Measurements.xlsx
+++ b/1 Month Tracking/Measurements.xlsx
@@ -75,11 +75,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,7 +389,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +431,16 @@
       <c r="C2" s="3">
         <v>2218.3891600000002</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4">
+        <v>44935</v>
+      </c>
+      <c r="E2">
+        <v>2211.7600000000002</v>
+      </c>
+      <c r="F2">
+        <f>C2-E2</f>
+        <v>6.6291599999999562</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -440,7 +452,16 @@
       <c r="C3" s="3">
         <v>2246.3059079999998</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4">
+        <v>44936</v>
+      </c>
+      <c r="E3">
+        <v>2190.42</v>
+      </c>
+      <c r="F3">
+        <f>C3-E3</f>
+        <v>55.885907999999745</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1 Month Tracking/Measurements.xlsx
+++ b/1 Month Tracking/Measurements.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +463,20 @@
         <v>55.885907999999745</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44937.43587627315</v>
+      </c>
+      <c r="C4">
+        <v>2233.375732</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44937</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
